--- a/data/trans_bre/VUL_OTRO-Clase-trans_bre.xlsx
+++ b/data/trans_bre/VUL_OTRO-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,18</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,52</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>199,12%</t>
+          <t>-60,39%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>90,73%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>6,08%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-66,11%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 1,74</t>
+          <t>-1,44; 0,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 2,47</t>
+          <t>-0,54; 1,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 0,04</t>
+          <t>-2,09; 2,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-94,52; 66,83</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-50,32; 140,73</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-93,62; 46,82</t>
+          <t>-54,93; 122,97</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>-1,51</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,66</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-24,87%</t>
+          <t>339,38%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>-29,55%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-34,59%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>416,73%</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 0,64</t>
+          <t>-0,08; 1,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 1,33</t>
+          <t>-1,29; 0,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 1,7</t>
+          <t>-7,79; 1,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -742,12 +742,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-82,13; 78,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,19; 66,12</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>7,04</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>378,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>91,95%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>141,28%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>152,1%</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 2,46</t>
+          <t>-0,04; 1,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 17,46</t>
+          <t>-0,46; 3,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 1,17</t>
+          <t>-0,42; 18,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,12 +822,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-34,84; 512,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1354,44</t>
+          <t>-27,44; 534,09</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>156,31%</t>
+          <t>106,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-18,71%</t>
+          <t>308,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>42,93%</t>
+          <t>-18,6%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 1,49</t>
+          <t>-0,16; 1,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 4,45</t>
+          <t>0,02; 1,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 0,97</t>
+          <t>-6,86; 4,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-55,76; 597,33</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-65,72; 100,33</t>
-        </is>
-      </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,06; 353,07</t>
+          <t>-67,25; 88,82</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>-1,75</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>6,21</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,47</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-72,35%</t>
+          <t>-48,16%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>-86,87%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>184,02%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-36,94%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 0,37</t>
+          <t>-2,59; 0,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,78; 14,02</t>
+          <t>-4,47; -0,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 0,55</t>
+          <t>0,32; 13,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-88,08; 133,02</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-6,72; 1136,1</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-83,8; 132,36</t>
+          <t>-26,3; 985,58</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-10,84</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-12,22</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-66,65%</t>
+          <t>93,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>31,83%</t>
+          <t>-69,38%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 20,25</t>
+          <t>-0,72; 1,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-27,42; -0,03</t>
+          <t>-8,88; 28,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 1,2</t>
+          <t>-29,82; -0,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-90,28; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-92,71; 19,37</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,7; 529,2</t>
+          <t>-93,11; 2,53</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20,35%</t>
+          <t>38,29%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,32%</t>
+          <t>12,08%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>21,62%</t>
+          <t>-0,78%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 0,62</t>
+          <t>-0,13; 0,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 2,09</t>
+          <t>-0,45; 0,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 0,45</t>
+          <t>-2,25; 1,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-51,81; 182,52</t>
+          <t>-21,93; 158,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-35,55; 48,49</t>
+          <t>-55,66; 188,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-26,21; 104,03</t>
+          <t>-33,28; 49,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/VUL_OTRO-Clase-trans_bre.xlsx
+++ b/data/trans_bre/VUL_OTRO-Clase-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-60,39%</t>
+          <t>-39,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 0,11</t>
+          <t>-0,93; 0,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 2,21</t>
+          <t>-1,92; 2,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-94,52; 66,83</t>
+          <t>-86,47; 178,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-54,93; 122,97</t>
+          <t>-50,56; 146,95</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>339,38%</t>
+          <t>29,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 1,82</t>
+          <t>-0,98; 0,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 1,28</t>
+          <t>-6,73; 1,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-81,19; 66,12</t>
+          <t>-84,26; 88,34</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>378,15%</t>
+          <t>295,24%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 1,59</t>
+          <t>-0,08; 2,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 18,22</t>
+          <t>-0,45; 17,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,44; 534,09</t>
+          <t>-25,35; 535,41</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>106,74%</t>
+          <t>37,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,37</t>
+          <t>-0,58; 1,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -892,12 +892,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 4,19</t>
+          <t>-7,86; 3,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-55,76; 597,33</t>
+          <t>-67,36; 409,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-67,25; 88,82</t>
+          <t>-69,85; 81,1</t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-48,16%</t>
+          <t>-46,19%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 0,49</t>
+          <t>-1,95; 0,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -972,12 +972,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 13,97</t>
+          <t>0,64; 14,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-88,08; 133,02</t>
+          <t>-87,35; 131,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-26,3; 985,58</t>
+          <t>-9,92; 1016,07</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>95,25%</t>
+          <t>-32,23%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 1,66</t>
+          <t>-3,01; 0,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1052,12 +1052,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-29,82; -0,93</t>
+          <t>-28,87; -0,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-90,28; —</t>
+          <t>-93,32; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-93,11; 2,53</t>
+          <t>-91,59; 22,03</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>38,29%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 0,6</t>
+          <t>-0,35; 0,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1132,12 +1132,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,95</t>
+          <t>-2,35; 1,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 158,53</t>
+          <t>-43,53; 85,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-33,28; 49,72</t>
+          <t>-35,7; 46,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/VUL_OTRO-Clase-trans_bre.xlsx
+++ b/data/trans_bre/VUL_OTRO-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>-0,26</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>6,08%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>90,73%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>-39,82%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>90,73%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>6,08%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-1,92; 2,66</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-0,54; 1,97</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-0,93; 0,33</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,54; 1,97</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,92; 2,66</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-50,56; 146,95</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-86,47; 178,22</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-50,56; 146,95</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-1,51</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,09</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,51</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-34,59%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-29,55%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>29,6%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-29,55%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-34,59%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-6,73; 1,5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-1,29; 0,73</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-0,98; 0,58</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,29; 0,73</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-6,73; 1,5</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-84,26; 88,34</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-84,26; 88,34</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>7,04</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,72</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,04</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>141,28%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>91,95%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>295,24%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>91,95%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>141,28%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-0,45; 17,95</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-0,46; 3,43</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-0,08; 2,35</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,46; 3,43</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,45; 17,95</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-25,35; 535,41</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-25,35; 535,41</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-1,42</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,23</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,42</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-18,6%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>308,41%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>37,99%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>308,41%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-18,6%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-7,86; 3,64</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 1,71</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-0,58; 1,08</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 1,71</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-7,86; 3,64</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-69,85; 81,1</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-67,36; 409,07</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-69,85; 81,1</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>6,21</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,75</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-0,58</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,75</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>6,21</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>184,02%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-86,87%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>-46,19%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-86,87%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>184,02%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,64; 14,73</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-4,47; -0,12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-1,95; 0,47</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,47; -0,12</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,64; 14,73</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-9,92; 1016,07</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>-87,35; 131,62</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-9,92; 1016,07</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-12,22</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3,92</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>-0,31</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,92</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-12,22</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-69,38%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>93,05%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>-32,23%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>93,05%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-69,38%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-28,87; -0,45</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-8,88; 28,13</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>-3,01; 0,63</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-8,88; 28,13</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-28,87; -0,45</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-91,59; 22,03</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>-93,32; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-91,59; 22,03</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-0,04</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>0,03</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>-0,78%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>12,08%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>5,33%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>12,08%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-0,78%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-2,35; 1,97</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-0,45; 0,61</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>-0,35; 0,38</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,45; 0,61</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-2,35; 1,97</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>-35,7; 46,78</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-55,66; 188,11</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>-43,53; 85,82</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-55,66; 188,11</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-35,7; 46,78</t>
         </is>
       </c>
     </row>
